--- a/מצגות/L16 - תרגול ניתוח הבדיקות וטבלת דרישות.xlsx
+++ b/מצגות/L16 - תרגול ניתוח הבדיקות וטבלת דרישות.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://wgalil-my.sharepoint.com/personal/alexg_wgalil_ac_il/Documents/Documents/Personal/מתנס/QA/QA-13-06/מצגות/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1\Desktop\QA\QA-13-06\מצגות\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8" documentId="11_4F4559B7D69A60A7D289B02388138A4DF605C47A" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{33537C0B-499F-49A1-9376-59D9DD7C5969}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="טבלת דרישות" sheetId="1" r:id="rId1"/>
@@ -27,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="164">
   <si>
     <t>דרישת אב</t>
   </si>
@@ -98,7 +97,7 @@
         <b/>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -108,7 +107,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -166,7 +165,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="9"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -317,7 +316,7 @@
         <b/>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -327,7 +326,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -338,7 +337,7 @@
         <b/>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -348,7 +347,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -359,7 +358,7 @@
         <b/>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -369,7 +368,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -382,7 +381,7 @@
         <b/>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -392,7 +391,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -403,7 +402,7 @@
         <b/>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -413,7 +412,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -424,7 +423,7 @@
         <b/>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -434,7 +433,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -447,7 +446,7 @@
         <b/>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -457,7 +456,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -468,7 +467,7 @@
         <b/>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -478,7 +477,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -489,7 +488,7 @@
         <b/>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -499,7 +498,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -512,7 +511,7 @@
         <b/>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -522,7 +521,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -533,7 +532,7 @@
         <b/>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -543,7 +542,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -554,7 +553,7 @@
         <b/>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -564,7 +563,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -577,7 +576,7 @@
         <b/>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -587,7 +586,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -598,7 +597,7 @@
         <b/>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -608,7 +607,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -619,7 +618,7 @@
         <b/>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -629,7 +628,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -723,7 +722,7 @@
         <b/>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -733,7 +732,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -744,7 +743,7 @@
         <b/>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -754,7 +753,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -765,7 +764,7 @@
         <b/>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -775,7 +774,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -788,7 +787,7 @@
         <b/>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -798,7 +797,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -809,7 +808,7 @@
         <b/>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -819,7 +818,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -830,7 +829,7 @@
         <b/>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -840,7 +839,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -853,7 +852,7 @@
         <b/>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -863,7 +862,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -874,7 +873,7 @@
         <b/>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -884,7 +883,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -895,7 +894,7 @@
         <b/>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -905,7 +904,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -918,7 +917,7 @@
         <b/>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -928,7 +927,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -939,7 +938,7 @@
         <b/>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -949,7 +948,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -960,7 +959,7 @@
         <b/>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -970,7 +969,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -983,7 +982,7 @@
         <b/>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -993,7 +992,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1004,7 +1003,7 @@
         <b/>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1014,7 +1013,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1025,7 +1024,7 @@
         <b/>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1035,7 +1034,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1120,7 +1119,7 @@
         <b/>
         <sz val="12"/>
         <color theme="0"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1130,7 +1129,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="0"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1142,7 +1141,7 @@
         <b/>
         <sz val="12"/>
         <color theme="0"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1152,7 +1151,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="0"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1164,7 +1163,7 @@
         <b/>
         <sz val="12"/>
         <color theme="0"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1174,7 +1173,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="0"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1187,7 +1186,7 @@
         <b/>
         <sz val="12"/>
         <color theme="0"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1197,7 +1196,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="0"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1209,7 +1208,7 @@
         <b/>
         <sz val="12"/>
         <color theme="0"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1219,7 +1218,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="0"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1231,7 +1230,7 @@
         <b/>
         <sz val="12"/>
         <color theme="0"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1241,7 +1240,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="0"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1254,7 +1253,7 @@
         <b/>
         <sz val="12"/>
         <color theme="0"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1264,7 +1263,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="0"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1276,7 +1275,7 @@
         <b/>
         <sz val="12"/>
         <color theme="0"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1286,7 +1285,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="0"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1298,7 +1297,7 @@
         <b/>
         <sz val="12"/>
         <color theme="0"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1308,7 +1307,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="0"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1321,7 +1320,7 @@
         <b/>
         <sz val="12"/>
         <color theme="0"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1331,7 +1330,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="0"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1342,7 +1341,7 @@
         <b/>
         <sz val="12"/>
         <color theme="0"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1352,7 +1351,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="0"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1363,7 +1362,7 @@
         <b/>
         <sz val="12"/>
         <color theme="0"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1373,7 +1372,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="0"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1384,7 +1383,7 @@
         <b/>
         <sz val="12"/>
         <color theme="0"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1394,7 +1393,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="0"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1407,7 +1406,7 @@
         <b/>
         <sz val="12"/>
         <color theme="0"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1417,7 +1416,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="0"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1428,7 +1427,7 @@
         <b/>
         <sz val="12"/>
         <color theme="0"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1438,7 +1437,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="0"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1449,7 +1448,7 @@
         <b/>
         <sz val="12"/>
         <color theme="0"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1459,7 +1458,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="0"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1472,7 +1471,7 @@
         <b/>
         <sz val="12"/>
         <color theme="0"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1482,7 +1481,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="0"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1493,7 +1492,7 @@
         <b/>
         <sz val="12"/>
         <color theme="0"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1503,7 +1502,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="0"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1514,7 +1513,7 @@
         <b/>
         <sz val="12"/>
         <color theme="0"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1524,7 +1523,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="0"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1537,7 +1536,7 @@
         <b/>
         <sz val="12"/>
         <color theme="0"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1547,7 +1546,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="0"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1558,7 +1557,7 @@
         <b/>
         <sz val="12"/>
         <color theme="0"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1568,7 +1567,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="0"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1579,7 +1578,7 @@
         <b/>
         <sz val="12"/>
         <color theme="0"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1589,7 +1588,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="0"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1602,7 +1601,7 @@
         <b/>
         <sz val="12"/>
         <color theme="0"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1612,7 +1611,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="0"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1623,7 +1622,7 @@
         <b/>
         <sz val="12"/>
         <color theme="0"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1633,7 +1632,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="0"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1644,7 +1643,7 @@
         <b/>
         <sz val="12"/>
         <color theme="0"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1654,7 +1653,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="0"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1667,7 +1666,7 @@
         <b/>
         <sz val="12"/>
         <color theme="0"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1677,7 +1676,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="0"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1688,7 +1687,7 @@
         <b/>
         <sz val="12"/>
         <color theme="0"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1698,7 +1697,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="0"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1709,7 +1708,7 @@
         <b/>
         <sz val="12"/>
         <color theme="0"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1719,7 +1718,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="0"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1732,7 +1731,7 @@
         <b/>
         <sz val="12"/>
         <color theme="0"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1742,7 +1741,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="0"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1753,7 +1752,7 @@
         <b/>
         <sz val="12"/>
         <color theme="0"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1763,7 +1762,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="0"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1774,7 +1773,7 @@
         <b/>
         <sz val="12"/>
         <color theme="0"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1784,7 +1783,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="0"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1817,17 +1816,20 @@
   </si>
   <si>
     <t xml:space="preserve">רשימת הזמנות </t>
+  </si>
+  <si>
+    <t>קבוצה</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1835,7 +1837,7 @@
       <b/>
       <sz val="12"/>
       <color theme="0"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1843,21 +1845,21 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="0"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="9"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1865,7 +1867,7 @@
       <b/>
       <sz val="14"/>
       <color theme="0"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -2235,7 +2237,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2342,6 +2344,33 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2384,34 +2413,10 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2793,29 +2798,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I35"/>
   <sheetViews>
     <sheetView rightToLeft="1" topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.25" style="6" customWidth="1"/>
+    <col min="1" max="1" width="14.21875" style="6" customWidth="1"/>
     <col min="2" max="2" width="12" style="7" customWidth="1"/>
     <col min="3" max="3" width="16" style="7" customWidth="1"/>
-    <col min="4" max="4" width="40.75" style="7" customWidth="1"/>
+    <col min="4" max="4" width="40.77734375" style="7" customWidth="1"/>
     <col min="5" max="5" width="33" style="7" customWidth="1"/>
-    <col min="6" max="6" width="26.75" style="7" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.75" style="7" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="21.625" style="7" customWidth="1"/>
-    <col min="9" max="9" width="22.125" style="7" customWidth="1"/>
-    <col min="10" max="16384" width="11.625" style="6"/>
+    <col min="6" max="6" width="26.77734375" style="7" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.77734375" style="7" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.6640625" style="7" customWidth="1"/>
+    <col min="9" max="9" width="22.109375" style="7" customWidth="1"/>
+    <col min="10" max="16384" width="11.6640625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="270.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="270.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
         <v>0</v>
       </c>
@@ -2844,17 +2849,17 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="39" t="s">
+    <row r="4" spans="1:9" ht="103.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="48" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="41">
+      <c r="B4" s="50">
         <v>1</v>
       </c>
-      <c r="C4" s="41" t="s">
+      <c r="C4" s="50" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="41" t="s">
+      <c r="D4" s="50" t="s">
         <v>24</v>
       </c>
       <c r="E4" s="26">
@@ -2873,11 +2878,11 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="39"/>
-      <c r="B5" s="42"/>
-      <c r="C5" s="42"/>
-      <c r="D5" s="42"/>
+    <row r="5" spans="1:9" ht="90" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="48"/>
+      <c r="B5" s="51"/>
+      <c r="C5" s="51"/>
+      <c r="D5" s="51"/>
       <c r="E5" s="26">
         <v>1.2</v>
       </c>
@@ -2894,11 +2899,11 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="117" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="39"/>
-      <c r="B6" s="43"/>
-      <c r="C6" s="43"/>
-      <c r="D6" s="43"/>
+    <row r="6" spans="1:9" ht="117" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="48"/>
+      <c r="B6" s="52"/>
+      <c r="C6" s="52"/>
+      <c r="D6" s="52"/>
       <c r="E6" s="26">
         <v>1.3</v>
       </c>
@@ -2915,15 +2920,15 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="39"/>
-      <c r="B7" s="44">
+    <row r="7" spans="1:9" ht="61.5" x14ac:dyDescent="0.2">
+      <c r="A7" s="48"/>
+      <c r="B7" s="53">
         <v>2</v>
       </c>
-      <c r="C7" s="44" t="s">
+      <c r="C7" s="53" t="s">
         <v>31</v>
       </c>
-      <c r="D7" s="44" t="s">
+      <c r="D7" s="53" t="s">
         <v>46</v>
       </c>
       <c r="E7" s="27">
@@ -2942,11 +2947,11 @@
         <v>47</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A8" s="39"/>
-      <c r="B8" s="45"/>
-      <c r="C8" s="45"/>
-      <c r="D8" s="45"/>
+    <row r="8" spans="1:9" ht="46.5" x14ac:dyDescent="0.2">
+      <c r="A8" s="48"/>
+      <c r="B8" s="54"/>
+      <c r="C8" s="54"/>
+      <c r="D8" s="54"/>
       <c r="E8" s="27">
         <v>2.2000000000000002</v>
       </c>
@@ -2963,15 +2968,15 @@
         <v>106</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="63" x14ac:dyDescent="0.25">
-      <c r="A9" s="39"/>
-      <c r="B9" s="36">
+    <row r="9" spans="1:9" ht="60" x14ac:dyDescent="0.2">
+      <c r="A9" s="48"/>
+      <c r="B9" s="45">
         <v>3</v>
       </c>
-      <c r="C9" s="36" t="s">
+      <c r="C9" s="45" t="s">
         <v>32</v>
       </c>
-      <c r="D9" s="36" t="s">
+      <c r="D9" s="45" t="s">
         <v>53</v>
       </c>
       <c r="E9" s="28">
@@ -2990,11 +2995,11 @@
         <v>56</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="63" x14ac:dyDescent="0.25">
-      <c r="A10" s="39"/>
-      <c r="B10" s="37"/>
-      <c r="C10" s="37"/>
-      <c r="D10" s="37"/>
+    <row r="10" spans="1:9" ht="46.5" x14ac:dyDescent="0.2">
+      <c r="A10" s="48"/>
+      <c r="B10" s="46"/>
+      <c r="C10" s="46"/>
+      <c r="D10" s="46"/>
       <c r="E10" s="28">
         <v>3.2</v>
       </c>
@@ -3011,11 +3016,11 @@
         <v>57</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="63" x14ac:dyDescent="0.25">
-      <c r="A11" s="39"/>
-      <c r="B11" s="38"/>
-      <c r="C11" s="38"/>
-      <c r="D11" s="38"/>
+    <row r="11" spans="1:9" ht="60" x14ac:dyDescent="0.2">
+      <c r="A11" s="48"/>
+      <c r="B11" s="47"/>
+      <c r="C11" s="47"/>
+      <c r="D11" s="47"/>
       <c r="E11" s="28">
         <v>3.3</v>
       </c>
@@ -3032,15 +3037,15 @@
         <v>89</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="63" x14ac:dyDescent="0.25">
-      <c r="A12" s="39"/>
-      <c r="B12" s="46">
+    <row r="12" spans="1:9" ht="60" x14ac:dyDescent="0.2">
+      <c r="A12" s="48"/>
+      <c r="B12" s="55">
         <v>4</v>
       </c>
-      <c r="C12" s="46" t="s">
+      <c r="C12" s="55" t="s">
         <v>33</v>
       </c>
-      <c r="D12" s="46" t="s">
+      <c r="D12" s="55" t="s">
         <v>58</v>
       </c>
       <c r="E12" s="5">
@@ -3059,11 +3064,11 @@
         <v>59</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="63" x14ac:dyDescent="0.25">
-      <c r="A13" s="39"/>
-      <c r="B13" s="47"/>
-      <c r="C13" s="47"/>
-      <c r="D13" s="47"/>
+    <row r="13" spans="1:9" ht="61.5" x14ac:dyDescent="0.2">
+      <c r="A13" s="48"/>
+      <c r="B13" s="56"/>
+      <c r="C13" s="56"/>
+      <c r="D13" s="56"/>
       <c r="E13" s="5">
         <v>4.2</v>
       </c>
@@ -3080,11 +3085,11 @@
         <v>60</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="63" x14ac:dyDescent="0.25">
-      <c r="A14" s="39"/>
-      <c r="B14" s="48"/>
-      <c r="C14" s="48"/>
-      <c r="D14" s="48"/>
+    <row r="14" spans="1:9" ht="46.5" x14ac:dyDescent="0.2">
+      <c r="A14" s="48"/>
+      <c r="B14" s="57"/>
+      <c r="C14" s="57"/>
+      <c r="D14" s="57"/>
       <c r="E14" s="5">
         <v>4.3</v>
       </c>
@@ -3101,12 +3106,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="63" x14ac:dyDescent="0.25">
-      <c r="A15" s="40"/>
-      <c r="B15" s="49">
+    <row r="15" spans="1:9" ht="46.5" x14ac:dyDescent="0.2">
+      <c r="A15" s="49"/>
+      <c r="B15" s="58">
         <v>5</v>
       </c>
-      <c r="C15" s="49" t="s">
+      <c r="C15" s="58" t="s">
         <v>34</v>
       </c>
       <c r="D15" s="29" t="s">
@@ -3128,10 +3133,10 @@
         <v>81</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="63" x14ac:dyDescent="0.25">
-      <c r="A16" s="40"/>
-      <c r="B16" s="49"/>
-      <c r="C16" s="49"/>
+    <row r="16" spans="1:9" ht="46.5" x14ac:dyDescent="0.2">
+      <c r="A16" s="49"/>
+      <c r="B16" s="58"/>
+      <c r="C16" s="58"/>
       <c r="D16" s="29"/>
       <c r="E16" s="29">
         <v>5.2</v>
@@ -3149,12 +3154,12 @@
         <v>82</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="63" x14ac:dyDescent="0.25">
-      <c r="A17" s="40"/>
-      <c r="B17" s="52">
+    <row r="17" spans="1:9" ht="46.5" x14ac:dyDescent="0.2">
+      <c r="A17" s="49"/>
+      <c r="B17" s="39">
         <v>6</v>
       </c>
-      <c r="C17" s="52" t="s">
+      <c r="C17" s="39" t="s">
         <v>35</v>
       </c>
       <c r="D17" s="30" t="s">
@@ -3176,10 +3181,10 @@
         <v>110</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="63" x14ac:dyDescent="0.25">
-      <c r="A18" s="40"/>
-      <c r="B18" s="52"/>
-      <c r="C18" s="52"/>
+    <row r="18" spans="1:9" ht="60" x14ac:dyDescent="0.2">
+      <c r="A18" s="49"/>
+      <c r="B18" s="39"/>
+      <c r="C18" s="39"/>
       <c r="D18" s="31"/>
       <c r="E18" s="30">
         <v>6.2</v>
@@ -3197,14 +3202,14 @@
         <v>111</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="63" x14ac:dyDescent="0.25">
-      <c r="A19" s="50" t="s">
+    <row r="19" spans="1:9" ht="60" x14ac:dyDescent="0.2">
+      <c r="A19" s="37" t="s">
         <v>143</v>
       </c>
-      <c r="B19" s="53">
+      <c r="B19" s="40">
         <v>7</v>
       </c>
-      <c r="C19" s="53" t="s">
+      <c r="C19" s="40" t="s">
         <v>91</v>
       </c>
       <c r="D19" s="32" t="s">
@@ -3226,10 +3231,10 @@
         <v>92</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A20" s="51"/>
-      <c r="B20" s="54"/>
-      <c r="C20" s="54"/>
+    <row r="20" spans="1:9" ht="46.5" x14ac:dyDescent="0.2">
+      <c r="A20" s="38"/>
+      <c r="B20" s="41"/>
+      <c r="C20" s="41"/>
       <c r="D20" s="32"/>
       <c r="E20" s="32">
         <v>7.2</v>
@@ -3247,12 +3252,12 @@
         <v>95</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="63" x14ac:dyDescent="0.25">
-      <c r="A21" s="51"/>
-      <c r="B21" s="55">
+    <row r="21" spans="1:9" ht="61.5" x14ac:dyDescent="0.2">
+      <c r="A21" s="38"/>
+      <c r="B21" s="42">
         <v>8</v>
       </c>
-      <c r="C21" s="55" t="s">
+      <c r="C21" s="42" t="s">
         <v>138</v>
       </c>
       <c r="D21" s="34" t="s">
@@ -3274,10 +3279,10 @@
         <v>100</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="63" x14ac:dyDescent="0.25">
-      <c r="A22" s="51"/>
-      <c r="B22" s="56"/>
-      <c r="C22" s="56"/>
+    <row r="22" spans="1:9" ht="46.5" x14ac:dyDescent="0.2">
+      <c r="A22" s="38"/>
+      <c r="B22" s="43"/>
+      <c r="C22" s="43"/>
       <c r="D22" s="34"/>
       <c r="E22" s="34">
         <v>8.1999999999999993</v>
@@ -3295,10 +3300,10 @@
         <v>101</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A23" s="51"/>
-      <c r="B23" s="57"/>
-      <c r="C23" s="57"/>
+    <row r="23" spans="1:9" ht="46.5" x14ac:dyDescent="0.2">
+      <c r="A23" s="38"/>
+      <c r="B23" s="44"/>
+      <c r="C23" s="44"/>
       <c r="D23" s="34"/>
       <c r="E23" s="34">
         <v>8.3000000000000007</v>
@@ -3316,7 +3321,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" s="7"/>
       <c r="B24" s="6"/>
       <c r="C24" s="6"/>
@@ -3327,7 +3332,7 @@
       <c r="H24" s="6"/>
       <c r="I24" s="6"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" s="7"/>
       <c r="B25" s="6"/>
       <c r="C25" s="6"/>
@@ -3338,7 +3343,7 @@
       <c r="H25" s="6"/>
       <c r="I25" s="6"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" s="7"/>
       <c r="B26" s="6"/>
       <c r="C26" s="6"/>
@@ -3349,7 +3354,7 @@
       <c r="H26" s="6"/>
       <c r="I26" s="6"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" s="7"/>
       <c r="B27" s="6"/>
       <c r="C27" s="6"/>
@@ -3360,7 +3365,7 @@
       <c r="H27" s="6"/>
       <c r="I27" s="6"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28" s="7"/>
       <c r="B28" s="6"/>
       <c r="C28" s="6"/>
@@ -3371,7 +3376,7 @@
       <c r="H28" s="6"/>
       <c r="I28" s="6"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" s="7"/>
       <c r="B29" s="6"/>
       <c r="C29" s="6"/>
@@ -3382,7 +3387,7 @@
       <c r="H29" s="6"/>
       <c r="I29" s="6"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30" s="7"/>
       <c r="B30" s="6"/>
       <c r="C30" s="6"/>
@@ -3393,7 +3398,7 @@
       <c r="H30" s="6"/>
       <c r="I30" s="6"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31" s="7"/>
       <c r="B31" s="6"/>
       <c r="C31" s="6"/>
@@ -3404,7 +3409,7 @@
       <c r="H31" s="6"/>
       <c r="I31" s="6"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32" s="7"/>
       <c r="B32" s="6"/>
       <c r="C32" s="6"/>
@@ -3415,7 +3420,7 @@
       <c r="H32" s="6"/>
       <c r="I32" s="6"/>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33" s="7"/>
       <c r="B33" s="6"/>
       <c r="C33" s="6"/>
@@ -3426,7 +3431,7 @@
       <c r="H33" s="6"/>
       <c r="I33" s="6"/>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34" s="7"/>
       <c r="B34" s="6"/>
       <c r="C34" s="6"/>
@@ -3437,18 +3442,11 @@
       <c r="H34" s="6"/>
       <c r="I34" s="6"/>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="A19:A23"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="B21:B23"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="C21:C23"/>
     <mergeCell ref="B9:B11"/>
     <mergeCell ref="C9:C11"/>
     <mergeCell ref="D9:D11"/>
@@ -3464,6 +3462,13 @@
     <mergeCell ref="D12:D14"/>
     <mergeCell ref="B15:B16"/>
     <mergeCell ref="C15:C16"/>
+    <mergeCell ref="A19:A23"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="B21:B23"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="C21:C23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3472,46 +3477,46 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:G131"/>
   <sheetViews>
     <sheetView rightToLeft="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="I114" sqref="I114"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.25" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.25" style="7" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.21875" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.21875" style="7" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12" style="7" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="23" style="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.5" style="7" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="40.75" style="7" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.625" style="7" customWidth="1"/>
-    <col min="8" max="9" width="11.625" style="7"/>
-    <col min="10" max="10" width="17.75" style="7" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.375" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.44140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="40.77734375" style="7" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.6640625" style="7" customWidth="1"/>
+    <col min="8" max="9" width="11.6640625" style="7"/>
+    <col min="10" max="10" width="17.77734375" style="7" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.33203125" style="7" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="23" style="7" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="11.625" style="7"/>
+    <col min="13" max="16384" width="11.6640625" style="7"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="58" t="s">
+    <row r="2" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A2" s="60" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="58"/>
-      <c r="C2" s="58"/>
-      <c r="D2" s="58"/>
-      <c r="E2" s="58"/>
-      <c r="F2" s="58"/>
-      <c r="G2" s="58"/>
-    </row>
-    <row r="3" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="60"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60"/>
+    </row>
+    <row r="3" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B3" s="25"/>
       <c r="C3" s="25"/>
       <c r="D3" s="25"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="9"/>
       <c r="B4" s="10"/>
       <c r="C4" s="10"/>
@@ -3520,7 +3525,7 @@
       <c r="F4" s="10"/>
       <c r="G4" s="11"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="59" t="s">
         <v>21</v>
       </c>
@@ -3538,11 +3543,11 @@
       </c>
       <c r="G5" s="13"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="59"/>
       <c r="G6" s="13"/>
     </row>
-    <row r="7" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="A7" s="59"/>
       <c r="B7" s="12" t="s">
         <v>9</v>
@@ -3558,11 +3563,11 @@
       </c>
       <c r="G7" s="13"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="59"/>
       <c r="G8" s="13"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="59"/>
       <c r="B9" s="12" t="s">
         <v>10</v>
@@ -3576,11 +3581,11 @@
       </c>
       <c r="G9" s="13"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="59"/>
       <c r="G10" s="13"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="59"/>
       <c r="B11" s="12" t="s">
         <v>11</v>
@@ -3594,7 +3599,7 @@
       </c>
       <c r="G11" s="13"/>
     </row>
-    <row r="12" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="16"/>
       <c r="B12" s="17"/>
       <c r="C12" s="17"/>
@@ -3603,7 +3608,7 @@
       <c r="F12" s="17"/>
       <c r="G12" s="18"/>
     </row>
-    <row r="13" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="9"/>
       <c r="B13" s="10"/>
       <c r="C13" s="10"/>
@@ -3612,7 +3617,7 @@
       <c r="F13" s="10"/>
       <c r="G13" s="11"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A14" s="59" t="s">
         <v>7</v>
       </c>
@@ -3630,7 +3635,7 @@
       </c>
       <c r="G14" s="13"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="59"/>
       <c r="C15" s="22">
         <v>1</v>
@@ -3644,7 +3649,7 @@
       <c r="F15" s="3"/>
       <c r="G15" s="13"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="59"/>
       <c r="C16" s="22">
         <v>2</v>
@@ -3658,7 +3663,7 @@
       <c r="F16" s="3"/>
       <c r="G16" s="13"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="59"/>
       <c r="C17" s="22">
         <v>3</v>
@@ -3672,7 +3677,7 @@
       <c r="F17" s="3"/>
       <c r="G17" s="13"/>
     </row>
-    <row r="18" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" ht="45" x14ac:dyDescent="0.2">
       <c r="A18" s="59"/>
       <c r="C18" s="22">
         <v>4</v>
@@ -3686,7 +3691,7 @@
       <c r="F18" s="3"/>
       <c r="G18" s="13"/>
     </row>
-    <row r="19" spans="1:7" ht="63" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" ht="45" x14ac:dyDescent="0.2">
       <c r="A19" s="59"/>
       <c r="C19" s="22">
         <v>5</v>
@@ -3700,7 +3705,7 @@
       <c r="F19" s="3"/>
       <c r="G19" s="13"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="59"/>
       <c r="C20" s="22"/>
       <c r="D20" s="1"/>
@@ -3708,7 +3713,7 @@
       <c r="F20" s="3"/>
       <c r="G20" s="13"/>
     </row>
-    <row r="21" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="59"/>
       <c r="C21" s="23"/>
       <c r="D21" s="2"/>
@@ -3716,7 +3721,7 @@
       <c r="F21" s="24"/>
       <c r="G21" s="13"/>
     </row>
-    <row r="22" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="16"/>
       <c r="B22" s="17"/>
       <c r="C22" s="17"/>
@@ -3725,8 +3730,8 @@
       <c r="F22" s="17"/>
       <c r="G22" s="18"/>
     </row>
-    <row r="24" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="9"/>
       <c r="B25" s="10"/>
       <c r="C25" s="10"/>
@@ -3735,7 +3740,7 @@
       <c r="F25" s="10"/>
       <c r="G25" s="11"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="59" t="s">
         <v>21</v>
       </c>
@@ -3753,11 +3758,11 @@
       </c>
       <c r="G26" s="13"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" s="59"/>
       <c r="G27" s="13"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" s="59"/>
       <c r="B28" s="12" t="s">
         <v>9</v>
@@ -3773,11 +3778,11 @@
       </c>
       <c r="G28" s="13"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" s="59"/>
       <c r="G29" s="13"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" s="59"/>
       <c r="B30" s="12" t="s">
         <v>10</v>
@@ -3793,11 +3798,11 @@
       </c>
       <c r="G30" s="13"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" s="59"/>
       <c r="G31" s="13"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" s="59"/>
       <c r="B32" s="12" t="s">
         <v>11</v>
@@ -3811,7 +3816,7 @@
       </c>
       <c r="G32" s="13"/>
     </row>
-    <row r="33" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A33" s="16"/>
       <c r="B33" s="17"/>
       <c r="C33" s="17"/>
@@ -3820,7 +3825,7 @@
       <c r="F33" s="17"/>
       <c r="G33" s="18"/>
     </row>
-    <row r="34" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A34" s="9"/>
       <c r="B34" s="10"/>
       <c r="C34" s="10"/>
@@ -3829,7 +3834,7 @@
       <c r="F34" s="10"/>
       <c r="G34" s="11"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A35" s="59" t="s">
         <v>7</v>
       </c>
@@ -3847,7 +3852,7 @@
       </c>
       <c r="G35" s="13"/>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" s="59"/>
       <c r="C36" s="22">
         <v>1</v>
@@ -3861,7 +3866,7 @@
       <c r="F36" s="3"/>
       <c r="G36" s="13"/>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" s="59"/>
       <c r="C37" s="22">
         <v>2</v>
@@ -3875,7 +3880,7 @@
       <c r="F37" s="3"/>
       <c r="G37" s="13"/>
     </row>
-    <row r="38" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="A38" s="59"/>
       <c r="C38" s="22">
         <v>3</v>
@@ -3889,7 +3894,7 @@
       <c r="F38" s="3"/>
       <c r="G38" s="13"/>
     </row>
-    <row r="39" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="A39" s="59"/>
       <c r="C39" s="22">
         <v>4</v>
@@ -3903,7 +3908,7 @@
       <c r="F39" s="3"/>
       <c r="G39" s="13"/>
     </row>
-    <row r="40" spans="1:7" ht="63" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" ht="60" x14ac:dyDescent="0.2">
       <c r="A40" s="59"/>
       <c r="C40" s="22">
         <v>5</v>
@@ -3917,7 +3922,7 @@
       <c r="F40" s="3"/>
       <c r="G40" s="13"/>
     </row>
-    <row r="41" spans="1:7" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A41" s="59"/>
       <c r="C41" s="23">
         <v>6</v>
@@ -3931,7 +3936,7 @@
       <c r="F41" s="24"/>
       <c r="G41" s="13"/>
     </row>
-    <row r="42" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A42" s="16"/>
       <c r="B42" s="17"/>
       <c r="C42" s="17"/>
@@ -3940,8 +3945,8 @@
       <c r="F42" s="17"/>
       <c r="G42" s="18"/>
     </row>
-    <row r="44" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" s="9"/>
       <c r="B45" s="10"/>
       <c r="C45" s="10"/>
@@ -3950,7 +3955,7 @@
       <c r="F45" s="10"/>
       <c r="G45" s="11"/>
     </row>
-    <row r="46" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="A46" s="59" t="s">
         <v>21</v>
       </c>
@@ -3968,11 +3973,11 @@
       </c>
       <c r="G46" s="13"/>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" s="59"/>
       <c r="G47" s="13"/>
     </row>
-    <row r="48" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="A48" s="59"/>
       <c r="B48" s="12" t="s">
         <v>9</v>
@@ -3988,11 +3993,11 @@
       </c>
       <c r="G48" s="13"/>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49" s="59"/>
       <c r="G49" s="13"/>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50" s="59"/>
       <c r="B50" s="12" t="s">
         <v>10</v>
@@ -4006,11 +4011,11 @@
       </c>
       <c r="G50" s="13"/>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51" s="59"/>
       <c r="G51" s="13"/>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52" s="59"/>
       <c r="B52" s="12" t="s">
         <v>11</v>
@@ -4024,7 +4029,7 @@
       </c>
       <c r="G52" s="13"/>
     </row>
-    <row r="53" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A53" s="16"/>
       <c r="B53" s="17"/>
       <c r="C53" s="17"/>
@@ -4033,13 +4038,13 @@
       <c r="F53" s="17"/>
       <c r="G53" s="18"/>
     </row>
-    <row r="54" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A54" s="9"/>
       <c r="B54" s="10"/>
       <c r="C54" s="10"/>
       <c r="G54" s="11"/>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A55" s="59" t="s">
         <v>7</v>
       </c>
@@ -4057,7 +4062,7 @@
       </c>
       <c r="G55" s="13"/>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A56" s="59"/>
       <c r="C56" s="22">
         <v>1</v>
@@ -4071,7 +4076,7 @@
       <c r="F56" s="3"/>
       <c r="G56" s="13"/>
     </row>
-    <row r="57" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="A57" s="59"/>
       <c r="C57" s="22">
         <v>2</v>
@@ -4085,7 +4090,7 @@
       <c r="F57" s="3"/>
       <c r="G57" s="13"/>
     </row>
-    <row r="58" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="A58" s="59"/>
       <c r="C58" s="22">
         <v>3</v>
@@ -4099,7 +4104,7 @@
       <c r="F58" s="3"/>
       <c r="G58" s="13"/>
     </row>
-    <row r="59" spans="1:7" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A59" s="59"/>
       <c r="C59" s="23">
         <v>4</v>
@@ -4113,7 +4118,7 @@
       <c r="F59" s="24"/>
       <c r="G59" s="13"/>
     </row>
-    <row r="60" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A60" s="16"/>
       <c r="B60" s="17"/>
       <c r="C60" s="17"/>
@@ -4122,8 +4127,8 @@
       <c r="F60" s="17"/>
       <c r="G60" s="18"/>
     </row>
-    <row r="62" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A63" s="9"/>
       <c r="B63" s="10"/>
       <c r="C63" s="10"/>
@@ -4132,7 +4137,7 @@
       <c r="F63" s="10"/>
       <c r="G63" s="11"/>
     </row>
-    <row r="64" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="A64" s="59" t="s">
         <v>21</v>
       </c>
@@ -4150,11 +4155,11 @@
       </c>
       <c r="G64" s="13"/>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A65" s="59"/>
       <c r="G65" s="13"/>
     </row>
-    <row r="66" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A66" s="59"/>
       <c r="B66" s="12" t="s">
         <v>9</v>
@@ -4170,11 +4175,11 @@
       </c>
       <c r="G66" s="13"/>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A67" s="59"/>
       <c r="G67" s="13"/>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A68" s="59"/>
       <c r="B68" s="12" t="s">
         <v>10</v>
@@ -4188,11 +4193,11 @@
       </c>
       <c r="G68" s="13"/>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A69" s="59"/>
       <c r="G69" s="13"/>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A70" s="59"/>
       <c r="B70" s="12" t="s">
         <v>11</v>
@@ -4206,7 +4211,7 @@
       </c>
       <c r="G70" s="13"/>
     </row>
-    <row r="71" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A71" s="16"/>
       <c r="B71" s="17"/>
       <c r="C71" s="17"/>
@@ -4215,13 +4220,13 @@
       <c r="F71" s="17"/>
       <c r="G71" s="18"/>
     </row>
-    <row r="72" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A72" s="9"/>
       <c r="B72" s="10"/>
       <c r="C72" s="10"/>
       <c r="G72" s="11"/>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A73" s="59" t="s">
         <v>7</v>
       </c>
@@ -4239,7 +4244,7 @@
       </c>
       <c r="G73" s="13"/>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A74" s="59"/>
       <c r="C74" s="22">
         <v>1</v>
@@ -4253,7 +4258,7 @@
       <c r="F74" s="3"/>
       <c r="G74" s="13"/>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A75" s="59"/>
       <c r="C75" s="22">
         <v>2</v>
@@ -4267,7 +4272,7 @@
       <c r="F75" s="3"/>
       <c r="G75" s="13"/>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A76" s="59"/>
       <c r="C76" s="22">
         <v>3</v>
@@ -4281,7 +4286,7 @@
       <c r="F76" s="3"/>
       <c r="G76" s="13"/>
     </row>
-    <row r="77" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="A77" s="59"/>
       <c r="C77" s="22">
         <v>4</v>
@@ -4295,7 +4300,7 @@
       <c r="F77" s="3"/>
       <c r="G77" s="13"/>
     </row>
-    <row r="78" spans="1:7" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A78" s="59"/>
       <c r="C78" s="23">
         <v>5</v>
@@ -4309,7 +4314,7 @@
       <c r="F78" s="24"/>
       <c r="G78" s="13"/>
     </row>
-    <row r="79" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A79" s="16"/>
       <c r="B79" s="17"/>
       <c r="C79" s="17"/>
@@ -4318,8 +4323,8 @@
       <c r="F79" s="17"/>
       <c r="G79" s="18"/>
     </row>
-    <row r="81" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A82" s="9"/>
       <c r="B82" s="10"/>
       <c r="C82" s="10"/>
@@ -4328,7 +4333,7 @@
       <c r="F82" s="10"/>
       <c r="G82" s="11"/>
     </row>
-    <row r="83" spans="1:7" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:7" ht="90" x14ac:dyDescent="0.2">
       <c r="A83" s="59" t="s">
         <v>21</v>
       </c>
@@ -4346,11 +4351,11 @@
       </c>
       <c r="G83" s="13"/>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A84" s="59"/>
       <c r="G84" s="13"/>
     </row>
-    <row r="85" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="A85" s="59"/>
       <c r="B85" s="12" t="s">
         <v>9</v>
@@ -4366,11 +4371,11 @@
       </c>
       <c r="G85" s="13"/>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A86" s="59"/>
       <c r="G86" s="13"/>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A87" s="59"/>
       <c r="B87" s="12" t="s">
         <v>10</v>
@@ -4384,11 +4389,11 @@
       </c>
       <c r="G87" s="13"/>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A88" s="59"/>
       <c r="G88" s="13"/>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A89" s="59"/>
       <c r="B89" s="12" t="s">
         <v>11</v>
@@ -4402,7 +4407,7 @@
       </c>
       <c r="G89" s="13"/>
     </row>
-    <row r="90" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A90" s="16"/>
       <c r="B90" s="17"/>
       <c r="C90" s="17"/>
@@ -4411,13 +4416,13 @@
       <c r="F90" s="17"/>
       <c r="G90" s="18"/>
     </row>
-    <row r="91" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A91" s="9"/>
       <c r="B91" s="10"/>
       <c r="C91" s="10"/>
       <c r="G91" s="11"/>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A92" s="59" t="s">
         <v>7</v>
       </c>
@@ -4435,7 +4440,7 @@
       </c>
       <c r="G92" s="13"/>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A93" s="59"/>
       <c r="C93" s="22">
         <v>1</v>
@@ -4449,7 +4454,7 @@
       <c r="F93" s="3"/>
       <c r="G93" s="13"/>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A94" s="59"/>
       <c r="C94" s="22">
         <v>2</v>
@@ -4463,7 +4468,7 @@
       <c r="F94" s="3"/>
       <c r="G94" s="13"/>
     </row>
-    <row r="95" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="A95" s="59"/>
       <c r="C95" s="22">
         <v>3</v>
@@ -4477,7 +4482,7 @@
       <c r="F95" s="3"/>
       <c r="G95" s="13"/>
     </row>
-    <row r="96" spans="1:7" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A96" s="59"/>
       <c r="C96" s="23">
         <v>4</v>
@@ -4491,7 +4496,7 @@
       <c r="F96" s="24"/>
       <c r="G96" s="13"/>
     </row>
-    <row r="97" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A97" s="16"/>
       <c r="B97" s="17"/>
       <c r="C97" s="17"/>
@@ -4500,8 +4505,8 @@
       <c r="F97" s="17"/>
       <c r="G97" s="18"/>
     </row>
-    <row r="99" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A100" s="9"/>
       <c r="B100" s="10"/>
       <c r="C100" s="10"/>
@@ -4510,7 +4515,7 @@
       <c r="F100" s="10"/>
       <c r="G100" s="11"/>
     </row>
-    <row r="101" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:7" ht="45" x14ac:dyDescent="0.2">
       <c r="A101" s="59" t="s">
         <v>21</v>
       </c>
@@ -4528,11 +4533,11 @@
       </c>
       <c r="G101" s="13"/>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A102" s="59"/>
       <c r="G102" s="13"/>
     </row>
-    <row r="103" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="A103" s="59"/>
       <c r="B103" s="12" t="s">
         <v>9</v>
@@ -4548,11 +4553,11 @@
       </c>
       <c r="G103" s="13"/>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A104" s="59"/>
       <c r="G104" s="13"/>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A105" s="59"/>
       <c r="B105" s="12" t="s">
         <v>10</v>
@@ -4566,11 +4571,11 @@
       </c>
       <c r="G105" s="13"/>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A106" s="59"/>
       <c r="G106" s="13"/>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A107" s="59"/>
       <c r="B107" s="12" t="s">
         <v>11</v>
@@ -4584,7 +4589,7 @@
       </c>
       <c r="G107" s="13"/>
     </row>
-    <row r="108" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A108" s="16"/>
       <c r="B108" s="17"/>
       <c r="C108" s="17"/>
@@ -4593,13 +4598,13 @@
       <c r="F108" s="17"/>
       <c r="G108" s="18"/>
     </row>
-    <row r="109" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A109" s="9"/>
       <c r="B109" s="10"/>
       <c r="C109" s="10"/>
       <c r="G109" s="11"/>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A110" s="59" t="s">
         <v>7</v>
       </c>
@@ -4617,7 +4622,7 @@
       </c>
       <c r="G110" s="13"/>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A111" s="59"/>
       <c r="C111" s="22">
         <v>1</v>
@@ -4631,7 +4636,7 @@
       <c r="F111" s="3"/>
       <c r="G111" s="13"/>
     </row>
-    <row r="112" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="A112" s="59"/>
       <c r="C112" s="22">
         <v>2</v>
@@ -4645,7 +4650,7 @@
       <c r="F112" s="3"/>
       <c r="G112" s="13"/>
     </row>
-    <row r="113" spans="1:7" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A113" s="59"/>
       <c r="C113" s="23">
         <v>3</v>
@@ -4659,7 +4664,7 @@
       <c r="F113" s="24"/>
       <c r="G113" s="13"/>
     </row>
-    <row r="114" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A114" s="16"/>
       <c r="B114" s="17"/>
       <c r="C114" s="17"/>
@@ -4668,8 +4673,8 @@
       <c r="F114" s="17"/>
       <c r="G114" s="18"/>
     </row>
-    <row r="116" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A117" s="9"/>
       <c r="B117" s="10"/>
       <c r="C117" s="10"/>
@@ -4678,7 +4683,7 @@
       <c r="F117" s="10"/>
       <c r="G117" s="11"/>
     </row>
-    <row r="118" spans="1:7" ht="63" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:7" ht="60" x14ac:dyDescent="0.2">
       <c r="A118" s="59" t="s">
         <v>21</v>
       </c>
@@ -4696,11 +4701,11 @@
       </c>
       <c r="G118" s="13"/>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A119" s="59"/>
       <c r="G119" s="13"/>
     </row>
-    <row r="120" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A120" s="59"/>
       <c r="B120" s="12" t="s">
         <v>9</v>
@@ -4716,11 +4721,11 @@
       </c>
       <c r="G120" s="13"/>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A121" s="59"/>
       <c r="G121" s="13"/>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A122" s="59"/>
       <c r="B122" s="12" t="s">
         <v>10</v>
@@ -4734,11 +4739,11 @@
       </c>
       <c r="G122" s="13"/>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A123" s="59"/>
       <c r="G123" s="13"/>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A124" s="59"/>
       <c r="B124" s="12" t="s">
         <v>11</v>
@@ -4752,7 +4757,7 @@
       </c>
       <c r="G124" s="13"/>
     </row>
-    <row r="125" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A125" s="16"/>
       <c r="B125" s="17"/>
       <c r="C125" s="17"/>
@@ -4761,11 +4766,11 @@
       <c r="F125" s="17"/>
       <c r="G125" s="18"/>
     </row>
-    <row r="126" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A126" s="15"/>
       <c r="G126" s="13"/>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A127" s="59" t="s">
         <v>7</v>
       </c>
@@ -4783,7 +4788,7 @@
       </c>
       <c r="G127" s="13"/>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A128" s="59"/>
       <c r="C128" s="22">
         <v>1</v>
@@ -4797,7 +4802,7 @@
       <c r="F128" s="3"/>
       <c r="G128" s="13"/>
     </row>
-    <row r="129" spans="1:7" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:7" ht="75" x14ac:dyDescent="0.2">
       <c r="A129" s="59"/>
       <c r="C129" s="22">
         <v>2</v>
@@ -4811,7 +4816,7 @@
       <c r="F129" s="3"/>
       <c r="G129" s="13"/>
     </row>
-    <row r="130" spans="1:7" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:7" ht="75.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A130" s="59"/>
       <c r="C130" s="23">
         <v>3</v>
@@ -4825,7 +4830,7 @@
       <c r="F130" s="24"/>
       <c r="G130" s="13"/>
     </row>
-    <row r="131" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A131" s="16"/>
       <c r="B131" s="17"/>
       <c r="C131" s="17"/>
@@ -4836,6 +4841,13 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="A55:A59"/>
+    <mergeCell ref="A101:A107"/>
+    <mergeCell ref="A64:A70"/>
+    <mergeCell ref="A83:A89"/>
+    <mergeCell ref="A73:A78"/>
+    <mergeCell ref="A92:A96"/>
     <mergeCell ref="A127:A130"/>
     <mergeCell ref="A46:A52"/>
     <mergeCell ref="A5:A11"/>
@@ -4844,13 +4856,6 @@
     <mergeCell ref="A35:A41"/>
     <mergeCell ref="A110:A113"/>
     <mergeCell ref="A118:A124"/>
-    <mergeCell ref="A2:G2"/>
-    <mergeCell ref="A55:A59"/>
-    <mergeCell ref="A101:A107"/>
-    <mergeCell ref="A64:A70"/>
-    <mergeCell ref="A83:A89"/>
-    <mergeCell ref="A73:A78"/>
-    <mergeCell ref="A92:A96"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -4858,205 +4863,236 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A2:A57"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:B57"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView rightToLeft="1" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="21.25" style="6" customWidth="1"/>
-    <col min="2" max="16384" width="11.625" style="6"/>
+    <col min="1" max="1" width="21.21875" style="6" customWidth="1"/>
+    <col min="2" max="2" width="11.6640625" style="7"/>
+    <col min="3" max="16384" width="11.6640625" style="6"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="B2" s="8" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="36" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="B3" s="36">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="36" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+      <c r="B4" s="36">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="36" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+      <c r="B5" s="36">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="36" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+      <c r="B6" s="36">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="36" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+      <c r="B7" s="36">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" s="36" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
+      <c r="B8" s="36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" s="36" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
+      <c r="B9" s="36">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" s="36" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
+      <c r="B10" s="36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" s="36" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B11" s="36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12"/>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13"/>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14"/>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15"/>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16"/>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17"/>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18"/>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19"/>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20"/>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21"/>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A22"/>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A23"/>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A24"/>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A25"/>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A26"/>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A27"/>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A28"/>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A29"/>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A30"/>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A31"/>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A32"/>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A33"/>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A34"/>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A35"/>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A36"/>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A37"/>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A38"/>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A39"/>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A40"/>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A41"/>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A42"/>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A43"/>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A44"/>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A45"/>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A46"/>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A47"/>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A48"/>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A49"/>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A50"/>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A51"/>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A52"/>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A53"/>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A54"/>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A55"/>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A56"/>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A57"/>
     </row>
   </sheetData>
